--- a/data/Kenya KPI dashboard notes.xlsx
+++ b/data/Kenya KPI dashboard notes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\320054667\OneDrive - Philips\Work\Projects\RD_Africa_Dashboards\KPI_dashboard\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\320038642\PycharmProjects\CPCSDASH\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4795D600-AC86-4C30-8001-D8AD20D0E8ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$46</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="123">
   <si>
     <t>Facility name</t>
   </si>
@@ -373,16 +382,41 @@
   </si>
   <si>
     <t>Facility</t>
+  </si>
+  <si>
+    <t>Aim3</t>
+  </si>
+  <si>
+    <t>Total reimbursements from  NHIF (Kshs)</t>
+  </si>
+  <si>
+    <t>Does the CLC help improve staff experience?</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Aim4</t>
+  </si>
+  <si>
+    <t>Healthcare cost data are not readily available in the facilities. However, our assumption and evidence from  literature is that improved demand at PHC lowers the costs of delivering care at a health system level by reducing the number of patients that by-pass lower levels and directly access care at higher levels of care. Availability of health services at PHC facilities that are located nearer the community also reduces the cost of care from the patient's perspective.
+For the Makueni facilities, the indicator on the amount of money claimed from NHIF as a reimbursement for services rendered is used as a proxy for financial sustainability of the facilities. PHC facilities in Kenya receive money from the County, however, the disbursements are usually irregular and inadequate.  Although the indicator does not directly indicate lower costs of care, the facilities are able to use the money to buy medicines and supplies when there are stock-outs hence reducing out-of-pocket spending for clients.</t>
+  </si>
+  <si>
+    <t>The indicator on total financial reimbursements from the NHIF is used as a proxy indicator for costs of health care. The assumption is that the eligible services are subsidized through refunds from the national insurer therefore reducing the costs offering care from the County and facility perspective. There was a 10 times increase in the reimbursement for Emali comparing 2018 to 2019, while Matiku and Tutini recieved reimbursements for the first time in 2019. The improved efficiency in filing NHIF claims is attributable to the availability of the  P4PC facility manager to support facility level managament.</t>
+  </si>
+  <si>
+    <t>Does the CLC contribute to cost reduction of healthcare?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +445,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -424,6 +459,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1021,46 +1063,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Annual_data" displayName="Annual_data" ref="A1:AC18" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A1:AC18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Annual_data" displayName="Annual_data" ref="A1:AC18" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A1:AC18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="Facility name" dataDxfId="28"/>
-    <tableColumn id="2" name="Location" dataDxfId="27"/>
-    <tableColumn id="3" name="Country" dataDxfId="26"/>
-    <tableColumn id="4" name="County" dataDxfId="25"/>
-    <tableColumn id="5" name="Description" dataDxfId="24"/>
-    <tableColumn id="6" name="Objectives" dataDxfId="23"/>
-    <tableColumn id="7" name="Partners" dataDxfId="22"/>
-    <tableColumn id="8" name="Start Date" dataDxfId="21"/>
-    <tableColumn id="9" name="Project Type" dataDxfId="20"/>
-    <tableColumn id="10" name="Year" dataDxfId="19"/>
-    <tableColumn id="11" name="BCG" dataDxfId="18"/>
-    <tableColumn id="12" name="DPT1" dataDxfId="17"/>
-    <tableColumn id="13" name="DPT3" dataDxfId="16"/>
-    <tableColumn id="14" name="Fully immunized children" dataDxfId="15"/>
-    <tableColumn id="15" name="First_ANC" dataDxfId="14"/>
-    <tableColumn id="16" name="ANC_4visits" dataDxfId="13"/>
-    <tableColumn id="17" name="Deliveries" dataDxfId="12"/>
-    <tableColumn id="18" name="Livebirths" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Facility name" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Location" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Country" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="County" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Objectives" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Partners" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Start Date" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Project Type" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Year" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="BCG" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="DPT1" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="DPT3" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Fully immunized children" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="First_ANC" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="ANC_4visits" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Deliveries" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Livebirths" dataDxfId="11">
       <calculatedColumnFormula>IFERROR(Q2-(S2+T2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Macerated births" dataDxfId="10"/>
-    <tableColumn id="20" name="Fresh still births" dataDxfId="9"/>
-    <tableColumn id="21" name="Pre-term births" dataDxfId="8"/>
-    <tableColumn id="22" name="Low birth weight (&lt;2500g)" dataDxfId="7"/>
-    <tableColumn id="23" name="GOPD_n" dataDxfId="6"/>
-    <tableColumn id="24" name="CWC visits" dataDxfId="5"/>
-    <tableColumn id="25" name="ANC visits" dataDxfId="4"/>
-    <tableColumn id="26" name="FSB rate/1000" dataDxfId="3">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Macerated births" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Fresh still births" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Pre-term births" dataDxfId="8"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Low birth weight (&lt;2500g)" dataDxfId="7"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="GOPD_n" dataDxfId="6"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="CWC visits" dataDxfId="5"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="ANC visits" dataDxfId="4"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="FSB rate/1000" dataDxfId="3">
       <calculatedColumnFormula>T2/Q2*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Proportion of LBW" dataDxfId="2">
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Proportion of LBW" dataDxfId="2">
       <calculatedColumnFormula>V2/R2*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="Proportion pre-term births" dataDxfId="1">
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Proportion pre-term births" dataDxfId="1">
       <calculatedColumnFormula>IFERROR(U2/R2*100,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="NHIF claims" dataDxfId="0"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="NHIF claims" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1328,26 +1370,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="52.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="73" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>114</v>
       </c>
@@ -1367,7 +1409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>73</v>
       </c>
@@ -1387,7 +1429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>73</v>
       </c>
@@ -1407,7 +1449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>73</v>
       </c>
@@ -1427,7 +1469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>73</v>
       </c>
@@ -1447,7 +1489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>73</v>
       </c>
@@ -1467,7 +1509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>82</v>
       </c>
@@ -1487,7 +1529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>82</v>
       </c>
@@ -1507,7 +1549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>82</v>
       </c>
@@ -1527,7 +1569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>82</v>
       </c>
@@ -1547,7 +1589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>82</v>
       </c>
@@ -1567,7 +1609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
@@ -1587,7 +1629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>25</v>
       </c>
@@ -1607,7 +1649,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>25</v>
       </c>
@@ -1627,7 +1669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>25</v>
       </c>
@@ -1647,7 +1689,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>25</v>
       </c>
@@ -1667,7 +1709,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>47</v>
       </c>
@@ -1687,7 +1729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>47</v>
       </c>
@@ -1707,7 +1749,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>47</v>
       </c>
@@ -1727,7 +1769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>47</v>
       </c>
@@ -1747,7 +1789,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>47</v>
       </c>
@@ -1767,7 +1809,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>48</v>
       </c>
@@ -1787,7 +1829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>48</v>
       </c>
@@ -1807,7 +1849,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>48</v>
       </c>
@@ -1827,7 +1869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>48</v>
       </c>
@@ -1847,7 +1889,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>48</v>
       </c>
@@ -1867,7 +1909,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>73</v>
       </c>
@@ -1887,7 +1929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>73</v>
       </c>
@@ -1907,7 +1949,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>73</v>
       </c>
@@ -1927,7 +1969,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>73</v>
       </c>
@@ -1947,7 +1989,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>82</v>
       </c>
@@ -1967,7 +2009,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>82</v>
       </c>
@@ -1987,7 +2029,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>82</v>
       </c>
@@ -2007,7 +2049,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>82</v>
       </c>
@@ -2027,7 +2069,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>25</v>
       </c>
@@ -2047,7 +2089,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>25</v>
       </c>
@@ -2067,7 +2109,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>25</v>
       </c>
@@ -2087,7 +2129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>25</v>
       </c>
@@ -2107,7 +2149,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>48</v>
       </c>
@@ -2127,7 +2169,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>48</v>
       </c>
@@ -2147,7 +2189,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>48</v>
       </c>
@@ -2167,7 +2209,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>48</v>
       </c>
@@ -2187,7 +2229,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>47</v>
       </c>
@@ -2207,7 +2249,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>47</v>
       </c>
@@ -2227,7 +2269,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>47</v>
       </c>
@@ -2247,7 +2289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>47</v>
       </c>
@@ -2267,49 +2309,250 @@
         <v>61</v>
       </c>
     </row>
+    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="6"/>
+    <col min="1" max="1" width="13.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
     <col min="5" max="5" width="12" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" style="6" customWidth="1"/>
-    <col min="10" max="14" width="9.1796875" style="6"/>
-    <col min="15" max="15" width="10.81640625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="12.54296875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="12.7265625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="6" customWidth="1"/>
+    <col min="10" max="14" width="9.140625" style="6"/>
+    <col min="15" max="15" width="10.85546875" style="6" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="6" customWidth="1"/>
     <col min="19" max="19" width="17" style="6" customWidth="1"/>
-    <col min="20" max="20" width="9.1796875" style="6"/>
-    <col min="21" max="21" width="10.453125" style="6" customWidth="1"/>
-    <col min="22" max="22" width="12.453125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="9.54296875" style="6" customWidth="1"/>
-    <col min="24" max="25" width="9.1796875" style="6"/>
-    <col min="26" max="26" width="16.7265625" style="7" customWidth="1"/>
-    <col min="27" max="27" width="11.26953125" style="7" customWidth="1"/>
-    <col min="28" max="28" width="14.453125" style="7" customWidth="1"/>
-    <col min="29" max="16384" width="9.1796875" style="6"/>
+    <col min="20" max="20" width="9.140625" style="6"/>
+    <col min="21" max="21" width="10.42578125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" style="6" customWidth="1"/>
+    <col min="24" max="25" width="9.140625" style="6"/>
+    <col min="26" max="26" width="16.7109375" style="7" customWidth="1"/>
+    <col min="27" max="27" width="11.28515625" style="7" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="7" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2398,7 +2641,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>73</v>
       </c>
@@ -2458,7 +2701,7 @@
       </c>
       <c r="AC2" s="8"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>73</v>
       </c>
@@ -2549,7 +2792,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>73</v>
       </c>
@@ -2640,7 +2883,7 @@
       </c>
       <c r="AC4" s="8"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>73</v>
       </c>
@@ -2731,7 +2974,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>73</v>
       </c>
@@ -2822,7 +3065,7 @@
       </c>
       <c r="AC6" s="8"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>73</v>
       </c>
@@ -2913,7 +3156,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>73</v>
       </c>
@@ -3004,7 +3247,7 @@
       </c>
       <c r="AC8" s="8"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>82</v>
       </c>
@@ -3095,7 +3338,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>82</v>
       </c>
@@ -3186,7 +3429,7 @@
       </c>
       <c r="AC10" s="8"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>82</v>
       </c>
@@ -3277,7 +3520,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>82</v>
       </c>
@@ -3368,7 +3611,7 @@
       </c>
       <c r="AC12" s="8"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
@@ -3461,7 +3704,7 @@
         <v>178900</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -3554,7 +3797,7 @@
         <v>1702200</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>48</v>
       </c>
@@ -3647,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>48</v>
       </c>
@@ -3740,7 +3983,7 @@
         <v>334950</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
@@ -3833,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
@@ -3935,6 +4178,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007DEF0E4DAE2E8644BEB82F96BD4A2201" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80e8b65f5dfda77ebb9181dc7596ce5f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44ab091d-f00c-49ad-98a9-5b33c819f06a" xmlns:ns4="5475ec48-1b41-4a10-8fee-cf51563dbe8e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="10eb73241bbe5fae6db8b6d95f7c1d03" ns3:_="" ns4:_="">
     <xsd:import namespace="44ab091d-f00c-49ad-98a9-5b33c819f06a"/>
@@ -4157,12 +4406,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4173,6 +4416,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBC8AB9A-AA49-4EE1-8279-6EFACFAD1A0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5475ec48-1b41-4a10-8fee-cf51563dbe8e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="44ab091d-f00c-49ad-98a9-5b33c819f06a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C56599-ABF9-429A-9733-35701A02900C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4191,23 +4451,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBC8AB9A-AA49-4EE1-8279-6EFACFAD1A0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5475ec48-1b41-4a10-8fee-cf51563dbe8e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="44ab091d-f00c-49ad-98a9-5b33c819f06a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C92B594B-1273-4E62-9AE3-482C25717BBE}">
   <ds:schemaRefs>

--- a/data/Kenya KPI dashboard notes.xlsx
+++ b/data/Kenya KPI dashboard notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\320038642\PycharmProjects\CPCSDASH\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4795D600-AC86-4C30-8001-D8AD20D0E8ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB4FE3B-4AE3-4708-B75F-38FB0EBA018B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="120">
   <si>
     <t>Facility name</t>
   </si>
@@ -57,39 +57,24 @@
     <t xml:space="preserve">The indicator indirectly measures the gap between Diphtheria, Pertussis and Tetanus (DPT) vaccines, DPT1 and DPT3, reflecting the continuity of care within the facility, including the system’s ability to capture and follow up with patients.  </t>
   </si>
   <si>
-    <t>There was a 179% increase in the number of children immunized with three doses of DPT in 2019 compared to 2014, with minimal loses to follow-up between DPT 1 and DPT 3 showing that there is continuity of care at the facility. There has been a consistent increase in the utilization of immunization services since 2014 except in 2017 during the health workers' strikes.</t>
-  </si>
-  <si>
     <t>Number of 1st and 4th ANC clients per year</t>
   </si>
   <si>
     <t xml:space="preserve">Receiving antenatal care at least four times,  increases the likelihood of receiving effective maternal health interventions during antenatal visits. The indicator indirectly measures the gap between ANC1 and ANC4 that reflects continuity of care within a health system, including the system’s ability to capture and follow up with patients. </t>
   </si>
   <si>
-    <t>The gap between the number attending ANC1 and ANC4 has remained at approximately 40% except for 2017 when the gap was about 60%. Other data from the facility indicate that women initiate antenatal care late in pregnancy, with more than 50% of women attending ANC for the first time after the 24th week of pregnancy.</t>
-  </si>
-  <si>
     <t>Number of clients seen in general outpatient department (GOPD)</t>
   </si>
   <si>
     <t>This indicator measures the demand for services and the assumption is that demand is driven in part by user experience. Other factors such as availability of services, availability of medicines and supplies and need at the population level also affect services utilization.</t>
   </si>
   <si>
-    <t>Utilization of GOPD services has increased over the years but there was a drop in utilization in 2016 due to unavailability of medicines and supplies in the facility and in 2017 due to the health workers strike. Variability in utilization of services at GOPD is driven largely by the availability of medicines and supplies at the facility level.</t>
-  </si>
-  <si>
-    <t>Utilization of ANC services in 2017 was affected by the health workers strike, hence the drop in the number of women utilizing the service and the number of women completing 4 ANC visits. Lack of supplies especially laboratory supplies for conducting ANC profile tests,  affects demand for services. The facility is now able to mitigate the stock-outs with NHIF (Linda mama) funds.</t>
-  </si>
-  <si>
     <t>Number of clients seen in child welfare clinic (CWC)</t>
   </si>
   <si>
     <t>Number of clients seen in Antenatal clinic (ANC)</t>
   </si>
   <si>
-    <t>The immunization programme at the facility is supported through  the national  vertical immunization programme which ensures consistent supply of vaccines and related supplies to the facility. The utilization of immunization services is therefore not affected by stock-outs of drugs and supplies that are supplied through the County procurement mechanisms.</t>
-  </si>
-  <si>
     <t>Quadruple Aim</t>
   </si>
   <si>
@@ -99,36 +84,12 @@
     <t>Indicator description</t>
   </si>
   <si>
-    <t>The number of children immunized with DPT  has increased over the years. Unlike other facilities, there was no decline in numbers in 2017 due to the health workers strike. However, the numbers declined in 2019 compared to 2018 due to  various reasons including; lack of medicines and supplies from July 2019 to January 2020, migration due to drought earlier in the year, flooding in November and December 2019 and withdrawal of a Save The Children Project that was supporting community health services in January 2019. The continuity of care between DPT1 and DPT3 has remained high over time.</t>
-  </si>
-  <si>
-    <t>There has been a remarkable increase in the number of women attending 4 ANC visits. The gap between the number attending ANC1 and ANC4 remarkably reduced from 78% in 2016 to 49% in 2019.</t>
-  </si>
-  <si>
-    <t>The utilization of CWC services has improved since the launch of the CLC, however the utilization of services declined in 2019 due to various reasons including; lack of medicines and supplies from July 2019 to January 2020, migration due to drought earlier in the year, flooding in November and December 2019 and withdrawal of a Save The Children Project that was supporting community health services in January 2019.</t>
-  </si>
-  <si>
-    <t>The utilization of ANC services has improved since the launch of the CLC, however the utilization of services declined in 2019 due to various reasons including; lack of medicines and supplies from July 2019 to January 2020, migration due to drought earlier in the year, flooding in November and December 2019 and withdrawal of a Save The Children Project that was supporting community health services in January 2019.</t>
-  </si>
-  <si>
-    <t>The utilization of GOPD services has improved since the launch of the CLC, however the utilization of services declined in 2019 due to  various reasons including; lack of medicines and supplies from July 2019 to January 2020, migration due to drought earlier in the year, flooding in November and December 2019 and withdrawal of a Save The Children Project that was supporting community health services in January 2019.</t>
-  </si>
-  <si>
     <t>Emali</t>
   </si>
   <si>
     <t>The number of children immunized with DPT1 and DPT3 has increased compared to 2018 with a &lt;3% gap between DPT1 and DPT3.</t>
   </si>
   <si>
-    <t>The utilization of GOPD services has increased comparing 2018 and 2019. The increase in utilization indicates improved demand for services which was driven by the refurbishment of the health facilities, health promotion efforts, upgrading of equipment and additional staff.</t>
-  </si>
-  <si>
-    <t>The utilization of ANC services has increased comparing 2018 and 2019. The increase in utilization of services can be attributed to the refurbishment of the health facilities, health promotion efforts, upgrading of equipment including availability of ultrasound services and additional staff.</t>
-  </si>
-  <si>
-    <t>The utilization of CWC services has increased comparing 2018 and 2019. The increase in utilization of services can be attributed to the refurbishment of the health facilities, health promotion efforts, upgrading of equipment and additional staff.</t>
-  </si>
-  <si>
     <t>Does the CLC contribute to improving patient outcomes?</t>
   </si>
   <si>
@@ -162,67 +123,13 @@
     <t>There has been a steady decline in LBW births at the facility level from 7.5% in 2014 to 3.5% in 2019. Although low birth weight is a reflection of broader public health issues, it is an important predictor of newborn survival. Published literature shows that more than 80% of neonatal deaths are in low birth weight infants.</t>
   </si>
   <si>
-    <t>The number of fully immunized children under the age of one years, increased from 684 in 2013 to 1891 in 2019. The number declined in 2017 due to the health workers strike. The indicator is a proxy measure for continuity of care and morbidity and mortality averted due to vaccine preventable diseases.</t>
-  </si>
-  <si>
-    <t>Reported LBW births at the facility level rose  from 0.69% in 2016 to 2.39% in 2019. Low birth weight is a reflection of broader public health issues such as maternal malnutrition than could have been caused by the extended drought in 2019. LBW is an important predictor of newborn survival, published literature shows that more than 80% of neonatal deaths are in low birth weight infants.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSB rate/1000 births reduced from 30.2/1000 births in 2016 to 9.8/1000 in 2019, indicating improvements in intrapartum outcomes. The reported FSBs were lowest in 2017 which could be attributed to lower number of deliveries at the facility level due to the health workers strike or low reporting levels. </t>
-  </si>
-  <si>
-    <t>There were no reported pre-term births in 2016 and  the prevalence of pre-term births was 8.76% in 2019. Pre-term births are an important predictor of neonatal deaths especially in low resource countries which lack or have low quality essential newborn care.  Pre-term births are mainly determined using the last menstrual period (LMP) method which is highly innacurate thus leading to underestimation of pre-term births.</t>
-  </si>
-  <si>
-    <t>The number of fully immunized children under the age of one years, increased from 422 in 2016 to 810 in 2018 but reduced to 524 in 2019. The number declined in 2019 due to various reasons including; lack of medicines and supplies from July 2019 to January 2020, migration due to drought earlier in the year, flooding in November and December 2019 and withdrawal of a Save The Children Project that was supporting community health services in January 2019. The indicator is a proxy measure for continuity of care and morbidity and mortality averted due to vaccine preventable diseases.</t>
-  </si>
-  <si>
-    <t>The proportion of pre-term births reduced from 3.2% in 2014 to 1.2% in 2019. Pre-term births are an important predictor of neonatal deaths especially in low resource countries which lack or have low quality essential newborn care. Pre-term births are mainly determined using the last menstrual period (LMP) method which is highly innacurate thus leading to underestimation of pre-term births.</t>
-  </si>
-  <si>
     <t>Tutini</t>
   </si>
   <si>
     <t>Matiku</t>
   </si>
   <si>
-    <t>The number of women attending 1st and 4th ANC visits increased, comparing 2019 to 2018. The increase in ANC1 shows increased demand for services while increases in ANC4 shows that the facility is able to ensure continuity of care for ANC services. Both demand and continuity of care are partly driven by clients' satisfaction with the services offered, refurbishment of the health facilities, health promotion efforts, upgrading of equipment and additional staff.</t>
-  </si>
-  <si>
     <t xml:space="preserve">One fresh still birth was reported in Emali Health center. This could be attributed to the few numbers of deliveries ensuring that labour is monitored more closely unlike in high workload facilities. </t>
-  </si>
-  <si>
-    <t>Proportion of births with LBW decreased in Emali comparing 2018 and 2019.  Although LBW is a reflection of broader public health issues, it is an important predictor of newborn survival. Published literature shows that more than 80% of neonatal deaths are in low birth weight infants.</t>
-  </si>
-  <si>
-    <t>The proportion of pre-term births decreased in Emali comparing 2018 and 2019.  Pre-term births are an important predictor of neonatal deaths especially in low resource countries which lack or have low quality essential newborn care. Pre-term births are mainly determined using the last menstrual period (LMP) method which is highly innacurate thus leading to underestimation of pre-term births.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of fully immunized children under the age of one years increased in Emali comparing 2018 and 2019. The indicator is a proxy measure for continuity of care and morbidity and mortality averted due to vaccine preventable diseases. The refurbishment of the health facility, health promotion efforts, upgrading of equipment and additional staff, all contributed to the increased demand for services at the facility. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No fresh still births  were reported in Matiku. This may be due to the few numbers of deliveries ensuring that labour is monitored more closely unlike in high workload facilities. </t>
-  </si>
-  <si>
-    <t>Proportion of births with LBW increased in Matiku. The increase in Matiku could be attributed to the increase in the number of births in the facilities. Although LBW is a reflection of broader public health issues, it is an important predictor of newborn survival. Published literature shows that more than 80% of neonatal deaths are in low birth weight infants.</t>
-  </si>
-  <si>
-    <t>The proportion of pre-term births increased in Matiku. The increases in Matiku  could be attributed to the increase in the number of births in the facilities. Pre-term births are an important predictor of neonatal deaths especially in low resource countries which lack or have low quality essential newborn care. However, pre-term births are mainly determined using the last menstrual period (LMP) method which is highly innacurate thus leading to underestimation of pre-term births.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of fully immunized children under the age of one years increased in  Matiku. The indicator is a proxy measure for continuity of care and morbidity and mortality averted due to vaccine preventable diseases. The refurbishment of the health facility, health promotion efforts, upgrading of equipment and additional staff, all contributed to the increased demand for services at the facility. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No fresh still births  were reported in Tutini. This is due to the few numbers of deliveries ensuring that labour is monitored more closely unlike in high workload facilities. </t>
-  </si>
-  <si>
-    <t>Proportion of births with LBW  increased in Tutini. The increases in Tutini could be attributed to the increase in the number of births in the facilities. Although LBW is a reflection of broader public health issues, it is an important predictor of newborn survival. Published literature shows that more than 80% of neonatal deaths are in low birth weight infants.</t>
-  </si>
-  <si>
-    <t>The proportion of pre-term births increased in Tutini. The increases in Tutini could be attributed to the increase in the number of births in the facility. Pre-term births are an important predictor of neonatal deaths especially in low resource countries which lack or have low quality essential newborn care. However, pre-term births are mainly determined using the last menstrual period (LMP) method which is highly innacurate thus leading to underestimation of pre-term births.</t>
-  </si>
-  <si>
-    <t>The number of fully immunized children under the age of one years slightly declined in Tutini. This was due to stock-out of measles vaccine in late 2019. The indicator is a proxy measure for continuity of care and morbidity and mortality averted due to vaccine preventable diseases.</t>
   </si>
   <si>
     <t>Location</t>
@@ -403,10 +310,96 @@
 For the Makueni facilities, the indicator on the amount of money claimed from NHIF as a reimbursement for services rendered is used as a proxy for financial sustainability of the facilities. PHC facilities in Kenya receive money from the County, however, the disbursements are usually irregular and inadequate.  Although the indicator does not directly indicate lower costs of care, the facilities are able to use the money to buy medicines and supplies when there are stock-outs hence reducing out-of-pocket spending for clients.</t>
   </si>
   <si>
-    <t>The indicator on total financial reimbursements from the NHIF is used as a proxy indicator for costs of health care. The assumption is that the eligible services are subsidized through refunds from the national insurer therefore reducing the costs offering care from the County and facility perspective. There was a 10 times increase in the reimbursement for Emali comparing 2018 to 2019, while Matiku and Tutini recieved reimbursements for the first time in 2019. The improved efficiency in filing NHIF claims is attributable to the availability of the  P4PC facility manager to support facility level managament.</t>
-  </si>
-  <si>
     <t>Does the CLC contribute to cost reduction of healthcare?</t>
+  </si>
+  <si>
+    <t>The number of children immunized with three doses of DPT has increased over the years compared to 2014. There are  minimal loses to follow-up between DPT 1 and DPT 3 indicating  continuity of care at the facility. There has been a consistent increase in the utilization of immunization services since 2014 except in 2017 during the health workers' strikes. The demand for immunization services was affected by the COVID-19 pandemic in 2020.</t>
+  </si>
+  <si>
+    <t>The gap between the number attending ANC1 and ANC4 has remained at approximately 40% except for 2017 when the gap was about 60%. Other data from the facility indicate that women initiate antenatal care late in pregnancy, with more than 50% of women attending ANC for the first time after the 24th week of pregnancy. The demand for antenatal services was affected by the COVID-19 pandemic in 2020.</t>
+  </si>
+  <si>
+    <t>The number of children immunized with DPT  has increased over the years. Unlike other facilities, there was no decline in numbers in 2017 due to the health workers strike. However, the numbers declined in 2019 and 2020  compared to 2018 due to the reasons stated above. The continuity of care between DPT1 and DPT3 has remained high.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There has been an  increase in the number of women attending antenatal  clinic and completing 4 ANC visits. </t>
+  </si>
+  <si>
+    <t>The number of women attending 1st and 4th ANC visits has increased in the three facilities, comparing 2019 to 2017. The increase in ANC1 shows increased demand for services while increases in ANC4 shows that the facility is able to ensure continuity of care for ANC services. Both demand and continuity of care are partly driven by clients' satisfaction with the services offered.</t>
+  </si>
+  <si>
+    <t>The number of children immunized with DPT1 and DPT3 has increased compared to 2017, with minimal losses between DPT1 and DPT3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The proportion of pre-term births reduced from 3.2% in 2014 to 1.7% in 2020. Pre-term births are an important predictor of neonatal deaths especially in low resource countries which lack or have low quality essential newborn care. </t>
+  </si>
+  <si>
+    <t>The number of fully immunized children under the age of one years, increased from 684 in 2013 to 1641 in 2020. The number declined in 2017 due to the health workers strike and in 2020 due to the COVID-19 pandemic. The indicator is a proxy measure for continuity of care and the morbidity and  mortality averted due to vaccine preventable diseases.</t>
+  </si>
+  <si>
+    <t>Reported LBW births at the facility level rose  from 0.69% in 2016 to 1.4% in 2020. Low birth weight is a reflection of broader public health issues such as maternal malnutrition than could have been caused by the extended drought in 2019/2020. LBW is an important predictor of newborn survival, published literature shows that more than 80% of neonatal deaths are in low birth weight infants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There were no reported pre-term births in 2016 and  the prevalence of pre-term births was 1.0% in 2020. Pre-term births are an important predictor of neonatal deaths especially in low resource countries which lack or have low quality essential newborn care. </t>
+  </si>
+  <si>
+    <t>The number of fully immunized children under the age of one years, increased from 422 in 2016 to 810 in 2018 but reduced in 2019 and 2020. The decrease in 2019 and 2020 could have been caused by the  reasons mentioned above. The indicator is a proxy measure for continuity of care and morbidity and mortality averted due to vaccine preventable diseases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One fresh still birth was reported in Emali HC while no FSBs were reported in Matiku and Tutini. This is due to the few numbers of deliveries ensuring that labour is monitored more closely unlike in high workload facilities. </t>
+  </si>
+  <si>
+    <t>Proportion of births with LBW decreased in Emali and increased in Matiku and Tutini. The increases in Matiku and Tutini could be attributed to the increase in the number of births in the facilities. Although LBW is a reflection of broader public health issues, it is an important predictor of newborn survival. Published literature shows that more than 80% of neonatal deaths are in low birth weight infants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The proportion of pre-term births decreased in Emali and increased in Matiku and Tutini. The increases in Matiku and Tutini could be attributed to the increase in the number of births in the facilities. Pre-term births are an important predictor of neonatal deaths especially in low resource countries which lack or have low quality essential newborn care. </t>
+  </si>
+  <si>
+    <t>The number of fully immunized children under the age of one years increased in Emali and Matiku and slightly declined in Tutini. The indicator is a proxy measure for continuity of care and morbidity and mortality averted due to vaccine preventable diseases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No FSBs was reported in Matiku. This is due to the few numbers of deliveries ensuring that labour is monitored more closely unlike in high workload facilities. </t>
+  </si>
+  <si>
+    <t>The indicator on total financial reimbursements from the NHIF is used as a proxy indicator for costs of health care. The assumption is that the eligible services are subsidized through refunds from the national insurer therefore reducing the costs offering care from the County and facility perspective. There was more than 10 times increase in the reimbursement for Emali comparing 2018 to 2020, while Matiku and Tutini recieved reimbursements for the first time in 2019. The improved efficiency in filing NHIF claims is attributable to the availability of the  P4PC facility manager to support facility level managament.</t>
+  </si>
+  <si>
+    <t>There has been a remarkable growth in the number of clients seen at ANC since the launch of the CLC. Service utlization was however affected by the health workers strike in 2017.                                                                                                                     Utilization of ANC services in 2017 was affected by the health workers strike, hence the drop in the number of women utilizing the service and the number of women completing 4 ANC visits. Lack of supplies especially laboratory supplies for conducting ANC profile tests,  affects demand for services. The facility is now able to mitigate the stock-outs with NHIF (Linda mama) funds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There has been a remarkable growth in the number of clients seen at GOPD  since the launch of the CLC. Service utlization was however affected by the health workers strike in 2017.
+Utilization of GOPD services has increased over the years but there was a drop in utilization in 2016 due to unavailability of medicines and supplies in the facility, in 2017 due to the health workers strike and in 2020 due to the COVID-19 pandemic. Variability in utilization of services at GOPD is driven largely by the availability of medicines and supplies at the facility level.
+</t>
+  </si>
+  <si>
+    <t>There has been a remarkable growth in the number of clients seen at CWC  since the launch of the CLC. Service utlization was however affected by the health workers strike in 2017.                                                                                                                             The immunization programme at the facility is supported through  the national  vertical immunization programme which ensures consistent supply of vaccines and related supplies to the facility. The utilization of immunization services is therefore not affected by stock-outs of drugs and supplies that are supplied through the County procurement mechanisms.</t>
+  </si>
+  <si>
+    <t>The utilization of GOPD services has improved since the launch of the CLC, however the utilization of services declined in 2019 except for ANC due to the reasons stated above.</t>
+  </si>
+  <si>
+    <t>The utilization of ANC services has improved since the launch of the CLC, however the utilization of services declined in 2019 except for ANC due to the reasons stated above.</t>
+  </si>
+  <si>
+    <t>The utilization of CWC services has improved since the launch of the CLC, however the utilization of services declined in 2019 except for ANC due to the reasons stated above.</t>
+  </si>
+  <si>
+    <t>The utilization of GOPD services has increased compared  to 2017.  The increase in utilization indicates improved demand for services which is partly driven by clients' satisfaction with the services offered.</t>
+  </si>
+  <si>
+    <t>The utilization of  ANC  services has increased compared  to 2017.  The increase in utilization indicates improved demand for services which is partly driven by clients' satisfaction with the services offered.</t>
+  </si>
+  <si>
+    <t>The utilization of CWC  services has increased compared  to 2017.  The increase in utilization indicates improved demand for services which is partly driven by clients' satisfaction with the services offered.</t>
+  </si>
+  <si>
+    <t>The utilization of ANC services has increased compared  to 2017.  The increase in utilization indicates improved demand for services which is partly driven by clients' satisfaction with the services offered.</t>
+  </si>
+  <si>
+    <t>The utilization of CWC services has increased compared  to 2017.  The increase in utilization indicates improved demand for services which is partly driven by clients' satisfaction with the services offered.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSB rate/1000 births reduced from 30.2/1000 births in 2016 to 9.8/1000 in 2020, indicating improvements in intrapartum outcomes. The reported FSBs were lowest in 2017 which could be attributed to lower number of deliveries at the facility level due to the health workers strike or low reporting levels. </t>
   </si>
 </sst>
 </file>
@@ -1374,8 +1367,8 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,33 +1384,33 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -1426,98 +1419,98 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
@@ -1526,98 +1519,98 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>4</v>
@@ -1626,98 +1619,98 @@
         <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>4</v>
@@ -1726,98 +1719,98 @@
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>4</v>
@@ -1826,687 +1819,687 @@
         <v>5</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2557,117 +2550,117 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="U1" s="3" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J2" s="6">
         <v>2013</v>
@@ -2703,31 +2696,31 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J3" s="6">
         <v>2014</v>
@@ -2794,31 +2787,31 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J4" s="6">
         <v>2015</v>
@@ -2885,31 +2878,31 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J5" s="6">
         <v>2016</v>
@@ -2976,31 +2969,31 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J6" s="6">
         <v>2017</v>
@@ -3067,31 +3060,31 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J7" s="6">
         <v>2018</v>
@@ -3158,31 +3151,31 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J8" s="6">
         <v>2019</v>
@@ -3249,31 +3242,31 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J9" s="6">
         <v>2016</v>
@@ -3340,31 +3333,31 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J10" s="6">
         <v>2017</v>
@@ -3431,31 +3424,31 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J11" s="6">
         <v>2018</v>
@@ -3522,31 +3515,31 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J12" s="6">
         <v>2019</v>
@@ -3613,31 +3606,31 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="J13" s="6">
         <v>2018</v>
@@ -3706,31 +3699,31 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="J14" s="6">
         <v>2019</v>
@@ -3799,31 +3792,31 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="J15" s="6">
         <v>2018</v>
@@ -3892,31 +3885,31 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="J16" s="6">
         <v>2019</v>
@@ -3985,31 +3978,31 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="J17" s="6">
         <v>2018</v>
@@ -4078,31 +4071,31 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="J18" s="6">
         <v>2019</v>
@@ -4178,12 +4171,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007DEF0E4DAE2E8644BEB82F96BD4A2201" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80e8b65f5dfda77ebb9181dc7596ce5f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44ab091d-f00c-49ad-98a9-5b33c819f06a" xmlns:ns4="5475ec48-1b41-4a10-8fee-cf51563dbe8e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="10eb73241bbe5fae6db8b6d95f7c1d03" ns3:_="" ns4:_="">
     <xsd:import namespace="44ab091d-f00c-49ad-98a9-5b33c819f06a"/>
@@ -4406,6 +4393,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4416,23 +4409,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBC8AB9A-AA49-4EE1-8279-6EFACFAD1A0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5475ec48-1b41-4a10-8fee-cf51563dbe8e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="44ab091d-f00c-49ad-98a9-5b33c819f06a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C56599-ABF9-429A-9733-35701A02900C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4451,6 +4427,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBC8AB9A-AA49-4EE1-8279-6EFACFAD1A0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5475ec48-1b41-4a10-8fee-cf51563dbe8e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="44ab091d-f00c-49ad-98a9-5b33c819f06a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C92B594B-1273-4E62-9AE3-482C25717BBE}">
   <ds:schemaRefs>

--- a/data/Kenya KPI dashboard notes.xlsx
+++ b/data/Kenya KPI dashboard notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\320038642\PycharmProjects\CPCSDASH\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\320038642\PycharmProjects\PHC_FEB2022_Version_Two\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB4FE3B-4AE3-4708-B75F-38FB0EBA018B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9489E89-F9B4-47B0-B2A5-7730E5560C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="122">
   <si>
     <t>Facility name</t>
   </si>
@@ -400,6 +400,12 @@
   </si>
   <si>
     <t xml:space="preserve">FSB rate/1000 births reduced from 30.2/1000 births in 2016 to 9.8/1000 in 2020, indicating improvements in intrapartum outcomes. The reported FSBs were lowest in 2017 which could be attributed to lower number of deliveries at the facility level due to the health workers strike or low reporting levels. </t>
+  </si>
+  <si>
+    <t>There are no available data routinely collected through the health information systems at the facility that can be used to measure staff satisfaction.</t>
+  </si>
+  <si>
+    <t>No data available</t>
   </si>
 </sst>
 </file>
@@ -1367,8 +1373,8 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2316,10 +2322,10 @@
         <v>87</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2336,10 +2342,10 @@
         <v>87</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2356,10 +2362,10 @@
         <v>87</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2376,10 +2382,10 @@
         <v>87</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2396,10 +2402,10 @@
         <v>87</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="300" x14ac:dyDescent="0.25">
@@ -2419,7 +2425,7 @@
         <v>89</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="300" x14ac:dyDescent="0.25">
@@ -2439,7 +2445,7 @@
         <v>89</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="138" customHeight="1" x14ac:dyDescent="0.25">
@@ -4171,6 +4177,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007DEF0E4DAE2E8644BEB82F96BD4A2201" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80e8b65f5dfda77ebb9181dc7596ce5f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44ab091d-f00c-49ad-98a9-5b33c819f06a" xmlns:ns4="5475ec48-1b41-4a10-8fee-cf51563dbe8e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="10eb73241bbe5fae6db8b6d95f7c1d03" ns3:_="" ns4:_="">
     <xsd:import namespace="44ab091d-f00c-49ad-98a9-5b33c819f06a"/>
@@ -4393,36 +4414,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C56599-ABF9-429A-9733-35701A02900C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C92B594B-1273-4E62-9AE3-482C25717BBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="44ab091d-f00c-49ad-98a9-5b33c819f06a"/>
-    <ds:schemaRef ds:uri="5475ec48-1b41-4a10-8fee-cf51563dbe8e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4445,9 +4440,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C92B594B-1273-4E62-9AE3-482C25717BBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C56599-ABF9-429A-9733-35701A02900C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="44ab091d-f00c-49ad-98a9-5b33c819f06a"/>
+    <ds:schemaRef ds:uri="5475ec48-1b41-4a10-8fee-cf51563dbe8e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>